--- a/Results/comparison_results/Easy_comparison/Normal_Easy_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Easy_comparison/Normal_Easy_langsmith_extraction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>cost</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>run_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,14 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.254406</v>
+        <v>20.800383</v>
       </c>
       <c r="C2" t="n">
-        <v>4023</v>
+        <v>3969</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00909</t>
+          <t>0.00798</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>398dca83-3a41-4706-a01d-98f5e40d4493</t>
         </is>
       </c>
     </row>
@@ -480,14 +490,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.785333</v>
+        <v>10.590813</v>
       </c>
       <c r="C3" t="n">
-        <v>3917</v>
+        <v>1875</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00816</t>
+          <t>0.00432</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>eb7bba59-4d1e-4a5c-8484-0a98e15f9805</t>
         </is>
       </c>
     </row>
@@ -498,14 +513,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.579937</v>
+        <v>25.306767</v>
       </c>
       <c r="C4" t="n">
-        <v>3942</v>
+        <v>4008</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00837</t>
+          <t>0.00867</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>a2f61821-a649-4d42-b139-81dc836793fd</t>
         </is>
       </c>
     </row>
@@ -516,14 +536,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.342481</v>
+        <v>24.192312</v>
       </c>
       <c r="C5" t="n">
-        <v>5006</v>
+        <v>4315</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.01113</t>
+          <t>0.00807</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ff5b90ba-a9a3-4991-adfd-d737d3331fa4</t>
         </is>
       </c>
     </row>
@@ -534,14 +559,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.26019</v>
+        <v>29.857486</v>
       </c>
       <c r="C6" t="n">
-        <v>4605</v>
+        <v>4745</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>d00eda08-cba1-4bf8-be95-4ce97a259752</t>
         </is>
       </c>
     </row>
@@ -552,14 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.745599</v>
+        <v>25.827656</v>
       </c>
       <c r="C7" t="n">
-        <v>3935</v>
+        <v>3896</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00798</t>
+          <t>0.00918</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>fe8ec08c-ff60-4931-975d-056021127e83</t>
         </is>
       </c>
     </row>
@@ -570,14 +605,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.680519</v>
+        <v>28.410494</v>
       </c>
       <c r="C8" t="n">
-        <v>4702</v>
+        <v>4699</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01029</t>
+          <t>0.01086</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48aa71b0-36db-44d0-ae39-1e3f2966218c</t>
         </is>
       </c>
     </row>
@@ -588,14 +628,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.175194</v>
+        <v>27.04807</v>
       </c>
       <c r="C9" t="n">
-        <v>5193</v>
+        <v>4889</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01263</t>
+          <t>0.01065</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>d367251e-e884-48cb-8ad9-13c2c526d128</t>
         </is>
       </c>
     </row>
@@ -606,14 +651,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.247969</v>
+        <v>24.273259</v>
       </c>
       <c r="C10" t="n">
-        <v>4688</v>
+        <v>3877</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00987</t>
+          <t>0.00801</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>d6207204-2975-47a1-a692-825c3b7bb8f8</t>
         </is>
       </c>
     </row>
@@ -624,14 +674,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.355992</v>
+        <v>24.353886</v>
       </c>
       <c r="C11" t="n">
-        <v>3814</v>
+        <v>4587</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00783</t>
+          <t>0.00975</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1a9ae94f-bb52-40f0-a49d-56811a38131a</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Easy_comparison/Normal_Easy_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Easy_comparison/Normal_Easy_langsmith_extraction.xlsx
@@ -463,198 +463,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot32 to location (2, 9) and remove the toolkit.</t>
+          <t>Move Robot2 to location (2, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.800383</v>
+        <v>36.320925</v>
       </c>
       <c r="C2" t="n">
-        <v>3969</v>
+        <v>3971</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00798</t>
+          <t>0.00852</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>398dca83-3a41-4706-a01d-98f5e40d4493</t>
+          <t>760e41a3-d8c2-444d-9572-7366ad81dec9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot6 to location (5, 4) and remove the liquid spill.</t>
+          <t>Move Robot26 to location (11, 4) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.590813</v>
+        <v>46.797177</v>
       </c>
       <c r="C3" t="n">
-        <v>1875</v>
+        <v>4009</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00432</t>
+          <t>0.00906</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>eb7bba59-4d1e-4a5c-8484-0a98e15f9805</t>
+          <t>3d2c6b48-0f96-4493-8462-65b457c992b8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot29 to location (5, 12) and remove the large debris.</t>
+          <t>Move Robot42 to location (9, 5) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.306767</v>
+        <v>61.136099</v>
       </c>
       <c r="C4" t="n">
-        <v>4008</v>
+        <v>4615</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00867</t>
+          <t>0.00993</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>a2f61821-a649-4d42-b139-81dc836793fd</t>
+          <t>eef0bfa4-adcc-482e-8ccc-96ea2203be96</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot48 to location (6, 6) and remove the dust.</t>
+          <t>Move Robot48 to location (5, 6) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.192312</v>
+        <v>69.94941300000001</v>
       </c>
       <c r="C5" t="n">
-        <v>4315</v>
+        <v>4567</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00807</t>
+          <t>0.00996</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ff5b90ba-a9a3-4991-adfd-d737d3331fa4</t>
+          <t>b4bd5fd8-7da8-4975-a5ca-48fdff2fe5bf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (1, 8) and remove the grass.</t>
+          <t>Move Robot31 to location (9, 4) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.857486</v>
+        <v>35.20186</v>
       </c>
       <c r="C6" t="n">
-        <v>4745</v>
+        <v>3866</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.00828</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>d00eda08-cba1-4bf8-be95-4ce97a259752</t>
+          <t>052d2de2-2857-4277-9766-9e3db72e5584</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot10 to location (9, 5) and remove the small debris.</t>
+          <t>Move Robot8 to location (8, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.827656</v>
+        <v>42.525113</v>
       </c>
       <c r="C7" t="n">
-        <v>3896</v>
+        <v>4484</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00918</t>
+          <t>0.00915</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fe8ec08c-ff60-4931-975d-056021127e83</t>
+          <t>4f611a9a-7cef-4415-9d8f-88f33aded40b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot13 to location (10, 10) and remove the vehicle.</t>
+          <t>Move Robot23 to location (11, 1) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.410494</v>
+        <v>32.039849</v>
       </c>
       <c r="C8" t="n">
-        <v>4699</v>
+        <v>3865</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01086</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>48aa71b0-36db-44d0-ae39-1e3f2966218c</t>
+          <t>0829af54-b795-4c0b-b3d9-06230bbe514d</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (8, 2) and remove the construction materials.</t>
+          <t>Move Robot23 to location (12, 10) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.04807</v>
+        <v>27.348842</v>
       </c>
       <c r="C9" t="n">
-        <v>4889</v>
+        <v>3927</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01065</t>
+          <t>0.00807</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>d367251e-e884-48cb-8ad9-13c2c526d128</t>
+          <t>eebbb157-65d7-4371-915d-d0e144c29e9f</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot24 to location (11, 8) and remove the tree branches.</t>
+          <t>Move Robot14 to location (7, 11) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.273259</v>
+        <v>26.50084</v>
       </c>
       <c r="C10" t="n">
-        <v>3877</v>
+        <v>3848</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -663,30 +663,30 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>d6207204-2975-47a1-a692-825c3b7bb8f8</t>
+          <t>c0d299d7-8690-4a94-9213-8e6aa34cce3e</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (3, 8) and remove the screws.</t>
+          <t>Move Robot15 to location (5, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.353886</v>
+        <v>26.786554</v>
       </c>
       <c r="C11" t="n">
-        <v>4587</v>
+        <v>3843</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00975</t>
+          <t>0.00813</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1a9ae94f-bb52-40f0-a49d-56811a38131a</t>
+          <t>d03d844b-dbc4-4b45-9272-83187249b2a7</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Easy_comparison/Normal_Easy_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Easy_comparison/Normal_Easy_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (2, 8) and remove the toolkit.</t>
+          <t>Move to location (7, 5) and remove the screws.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.320925</v>
+        <v>26.214176</v>
       </c>
       <c r="C2" t="n">
-        <v>3971</v>
+        <v>3773</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00852</t>
+          <t>0.00738</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>760e41a3-d8c2-444d-9572-7366ad81dec9</t>
+          <t>304fa2a7-8596-4062-8bc3-e4730f4005c8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (11, 4) and remove the liquid spill.</t>
+          <t>Move Robot2 to location (11, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.797177</v>
+        <v>24.942843</v>
       </c>
       <c r="C3" t="n">
-        <v>4009</v>
+        <v>3836</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00906</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3d2c6b48-0f96-4493-8462-65b457c992b8</t>
+          <t>21fb56e1-03e9-4472-9547-8bb46a360ad8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot42 to location (9, 5) and remove the large debris.</t>
+          <t>Move Robot26 to location (4, 4) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.136099</v>
+        <v>22.071861</v>
       </c>
       <c r="C4" t="n">
-        <v>4615</v>
+        <v>3931</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00993</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>eef0bfa4-adcc-482e-8ccc-96ea2203be96</t>
+          <t>5cf21d66-8c2b-4e4f-9299-47008f91dc54</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot48 to location (5, 6) and remove the dust.</t>
+          <t>Move Robot42 to location (9, 1) and remove the large debris.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.94941300000001</v>
+        <v>27.840383</v>
       </c>
       <c r="C5" t="n">
-        <v>4567</v>
+        <v>4000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00996</t>
+          <t>0.00867</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>b4bd5fd8-7da8-4975-a5ca-48fdff2fe5bf</t>
+          <t>7eb01efa-8d8c-48c1-9eb9-bf80c7f64ab1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot31 to location (9, 4) and remove the grass.</t>
+          <t>Move Robot50 to location (7, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.20186</v>
+        <v>30.961912</v>
       </c>
       <c r="C6" t="n">
-        <v>3866</v>
+        <v>4584</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00828</t>
+          <t>0.00963</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>052d2de2-2857-4277-9766-9e3db72e5584</t>
+          <t>5e73f4cc-a413-40ab-86b9-9f8c9cb39d66</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot8 to location (8, 12) and remove the small debris.</t>
+          <t>Move Robot41 to location (6, 12) and remove the grass.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.525113</v>
+        <v>22.119066</v>
       </c>
       <c r="C7" t="n">
-        <v>4484</v>
+        <v>3801</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00915</t>
+          <t>0.00756</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4f611a9a-7cef-4415-9d8f-88f33aded40b</t>
+          <t>05f759ff-bac4-47bd-a868-5aad31d009e9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (11, 1) and remove the vehicle.</t>
+          <t>Move Robot50 to location (3, 1) and remove the small debris.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.039849</v>
+        <v>32.655067</v>
       </c>
       <c r="C8" t="n">
-        <v>3865</v>
+        <v>4648</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.01002</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0829af54-b795-4c0b-b3d9-06230bbe514d</t>
+          <t>345ccc0b-addb-4eed-b8d8-35a7d8cd3944</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (12, 10) and remove the construction materials.</t>
+          <t>Move Robot13 to location (1, 4) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.348842</v>
+        <v>24.222663</v>
       </c>
       <c r="C9" t="n">
-        <v>3927</v>
+        <v>3819</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00807</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>eebbb157-65d7-4371-915d-d0e144c29e9f</t>
+          <t>f9cf4a02-7c30-4326-95f4-3ae0b0494580</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot14 to location (7, 11) and remove the tree branches.</t>
+          <t>Move Robot13 to location (11, 1) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.50084</v>
+        <v>28.322895</v>
       </c>
       <c r="C10" t="n">
-        <v>3848</v>
+        <v>3921</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00801</t>
+          <t>0.00774</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>c0d299d7-8690-4a94-9213-8e6aa34cce3e</t>
+          <t>7420de6d-4ab9-4dad-ae4b-33290d2527dc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (5, 3) and remove the screws.</t>
+          <t>Move Robot14 to location (2, 10) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.786554</v>
+        <v>27.654019</v>
       </c>
       <c r="C11" t="n">
-        <v>3843</v>
+        <v>3848</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00813</t>
+          <t>0.00792</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>d03d844b-dbc4-4b45-9272-83187249b2a7</t>
+          <t>6426e022-a3ec-41f9-bc7c-52324826cc9f</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Easy_comparison/Normal_Easy_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Easy_comparison/Normal_Easy_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (7, 5) and remove the screws.</t>
+          <t>Move Robot2 to location (11, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.214176</v>
+        <v>24.942843</v>
       </c>
       <c r="C2" t="n">
-        <v>3773</v>
+        <v>3836</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00738</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>304fa2a7-8596-4062-8bc3-e4730f4005c8</t>
+          <t>21fb56e1-03e9-4472-9547-8bb46a360ad8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (11, 8) and remove the toolkit.</t>
+          <t>Move Robot26 to location (4, 4) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.942843</v>
+        <v>22.071861</v>
       </c>
       <c r="C3" t="n">
-        <v>3836</v>
+        <v>3931</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21fb56e1-03e9-4472-9547-8bb46a360ad8</t>
+          <t>5cf21d66-8c2b-4e4f-9299-47008f91dc54</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (4, 4) and remove the liquid spill.</t>
+          <t>Move Robot42 to location (9, 1) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.071861</v>
+        <v>27.840383</v>
       </c>
       <c r="C4" t="n">
-        <v>3931</v>
+        <v>4000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.00867</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5cf21d66-8c2b-4e4f-9299-47008f91dc54</t>
+          <t>7eb01efa-8d8c-48c1-9eb9-bf80c7f64ab1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot42 to location (9, 1) and remove the large debris.</t>
+          <t>Move Robot50 to location (7, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.840383</v>
+        <v>30.961912</v>
       </c>
       <c r="C5" t="n">
-        <v>4000</v>
+        <v>4584</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00867</t>
+          <t>0.00963</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7eb01efa-8d8c-48c1-9eb9-bf80c7f64ab1</t>
+          <t>5e73f4cc-a413-40ab-86b9-9f8c9cb39d66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot50 to location (7, 11) and remove the dust.</t>
+          <t>Move Robot41 to location (6, 12) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.961912</v>
+        <v>22.119066</v>
       </c>
       <c r="C6" t="n">
-        <v>4584</v>
+        <v>3801</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00963</t>
+          <t>0.00756</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5e73f4cc-a413-40ab-86b9-9f8c9cb39d66</t>
+          <t>05f759ff-bac4-47bd-a868-5aad31d009e9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (6, 12) and remove the grass.</t>
+          <t>Move Robot50 to location (3, 1) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.119066</v>
+        <v>32.655067</v>
       </c>
       <c r="C7" t="n">
-        <v>3801</v>
+        <v>4648</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00756</t>
+          <t>0.01002</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>05f759ff-bac4-47bd-a868-5aad31d009e9</t>
+          <t>345ccc0b-addb-4eed-b8d8-35a7d8cd3944</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot50 to location (3, 1) and remove the small debris.</t>
+          <t>Move Robot13 to location (1, 4) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.655067</v>
+        <v>24.222663</v>
       </c>
       <c r="C8" t="n">
-        <v>4648</v>
+        <v>3819</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01002</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>345ccc0b-addb-4eed-b8d8-35a7d8cd3944</t>
+          <t>f9cf4a02-7c30-4326-95f4-3ae0b0494580</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot13 to location (1, 4) and remove the vehicle.</t>
+          <t>Move Robot13 to location (11, 1) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.222663</v>
+        <v>28.322895</v>
       </c>
       <c r="C9" t="n">
-        <v>3819</v>
+        <v>3921</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.00774</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>f9cf4a02-7c30-4326-95f4-3ae0b0494580</t>
+          <t>7420de6d-4ab9-4dad-ae4b-33290d2527dc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot13 to location (11, 1) and remove the construction materials.</t>
+          <t>Move Robot14 to location (2, 10) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.322895</v>
+        <v>27.654019</v>
       </c>
       <c r="C10" t="n">
-        <v>3921</v>
+        <v>3848</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00774</t>
+          <t>0.00792</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7420de6d-4ab9-4dad-ae4b-33290d2527dc</t>
+          <t>6426e022-a3ec-41f9-bc7c-52324826cc9f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot14 to location (2, 10) and remove the tree branches.</t>
+          <t>Move Robot15 to location (8, 6) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.654019</v>
+        <v>22.995794</v>
       </c>
       <c r="C11" t="n">
-        <v>3848</v>
+        <v>3855</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00792</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6426e022-a3ec-41f9-bc7c-52324826cc9f</t>
+          <t>fab7db7a-f521-4140-8eb4-0f0c395ac018</t>
         </is>
       </c>
     </row>
